--- a/Project Documentation/Ecommerce.xlsx
+++ b/Project Documentation/Ecommerce.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="6000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modules" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>User Stories</t>
   </si>
@@ -38,103 +38,253 @@
     <t>Get all products</t>
   </si>
   <si>
-    <t>Get a single product</t>
-  </si>
-  <si>
     <t>Limit &amp; Skip products Per page</t>
   </si>
   <si>
-    <t>Get products of category</t>
-  </si>
-  <si>
     <t>Add a product</t>
   </si>
   <si>
-    <t>Update a product</t>
-  </si>
-  <si>
-    <t>Delete a product</t>
-  </si>
-  <si>
     <t>Pagination Results</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Get all users</t>
-  </si>
-  <si>
-    <t>Get a single user</t>
-  </si>
-  <si>
-    <t>Add user</t>
-  </si>
-  <si>
-    <t>Update user</t>
-  </si>
-  <si>
-    <t>Delete user</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Get all categories</t>
-  </si>
-  <si>
-    <t>Get a single category</t>
-  </si>
-  <si>
-    <t>Add category</t>
-  </si>
-  <si>
-    <t>Update category</t>
-  </si>
-  <si>
-    <t>Delete category</t>
-  </si>
-  <si>
     <t>Cart</t>
   </si>
   <si>
-    <t>Carts</t>
-  </si>
-  <si>
-    <t>Create a cart</t>
-  </si>
-  <si>
-    <t>Get cart</t>
-  </si>
-  <si>
-    <t>Add item to cart</t>
-  </si>
-  <si>
-    <t>Update cart</t>
-  </si>
-  <si>
-    <t>Update item in cart</t>
-  </si>
-  <si>
-    <t>Delete cart</t>
-  </si>
-  <si>
-    <t>Empty cart</t>
-  </si>
-  <si>
     <t>Remove item from cart</t>
   </si>
   <si>
     <t>Api Name</t>
   </si>
   <si>
-    <t>getAllProducts();</t>
-  </si>
-  <si>
     <t>Api Describtion</t>
   </si>
   <si>
-    <t>getSingleProduct(int id)</t>
+    <t>Get a single Product category</t>
+  </si>
+  <si>
+    <t>Update  Product category</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Get a single product by id</t>
+  </si>
+  <si>
+    <t>Get products of category by id</t>
+  </si>
+  <si>
+    <t>Delete a product By Id</t>
+  </si>
+  <si>
+    <t>Update a product By Id</t>
+  </si>
+  <si>
+    <t>Mandatory  for Development</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>Get all Customer List</t>
+  </si>
+  <si>
+    <t>Get a single Customer By Id</t>
+  </si>
+  <si>
+    <t>Add Single Customer</t>
+  </si>
+  <si>
+    <t>Update Customer By Id</t>
+  </si>
+  <si>
+    <t>Delete single Customer By Id</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Get all  Product Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Product Category </t>
+  </si>
+  <si>
+    <t>Delete  All Product  List</t>
+  </si>
+  <si>
+    <t>Delete  Product Cateogry By Id</t>
+  </si>
+  <si>
+    <t>Create a cart By Id</t>
+  </si>
+  <si>
+    <t>Get cart By Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add item to cart </t>
+  </si>
+  <si>
+    <t>Update cart By Id</t>
+  </si>
+  <si>
+    <t>Update item in cart Id</t>
+  </si>
+  <si>
+    <t>Delete cart By Id</t>
+  </si>
+  <si>
+    <t>Empty cart By Id</t>
+  </si>
+  <si>
+    <t>Get Customer Address By Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create  Cjustomer Address </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated  Customer Address </t>
+  </si>
+  <si>
+    <t>Delete Customer  Address</t>
+  </si>
+  <si>
+    <t>CustomerAccount</t>
+  </si>
+  <si>
+    <t>Get Customer Account By Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get All ListOf  Customer Addresses  </t>
+  </si>
+  <si>
+    <t>Create Customer Account</t>
+  </si>
+  <si>
+    <t>Update Customer Account By Id</t>
+  </si>
+  <si>
+    <t>Get All  List Customer Accounts</t>
+  </si>
+  <si>
+    <t>Delete CustomerAccount By Id</t>
+  </si>
+  <si>
+    <t>Delete All CustomerAccounts</t>
+  </si>
+  <si>
+    <t>Product Brand</t>
+  </si>
+  <si>
+    <t>List all Product Brand By Id</t>
+  </si>
+  <si>
+    <t>Create Product Brand</t>
+  </si>
+  <si>
+    <t>Update  Product Brand By Id</t>
+  </si>
+  <si>
+    <t>Delete Product Brand By Id</t>
+  </si>
+  <si>
+    <t>Delete All Product Brands</t>
+  </si>
+  <si>
+    <t>Get Product Brand By Id</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Get Order By Id</t>
+  </si>
+  <si>
+    <t>Create Order</t>
+  </si>
+  <si>
+    <t>Update Order</t>
+  </si>
+  <si>
+    <t>List All Orders</t>
+  </si>
+  <si>
+    <t>Delete All Orders</t>
+  </si>
+  <si>
+    <t>Delete Order By Id</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Get Billing Address By Id</t>
+  </si>
+  <si>
+    <t>Create Billing Address</t>
+  </si>
+  <si>
+    <t>Update Billing Address</t>
+  </si>
+  <si>
+    <t>Delete Billing Address By Id</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Customer Address</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>List&lt;Product&gt; getAllProducts();</t>
+  </si>
+  <si>
+    <t>Product  getSingleProduct(int id)</t>
+  </si>
+  <si>
+    <t>String displayResultsPerPageI(int linit,int skip)</t>
+  </si>
+  <si>
+    <t>Categet CategoryOfProduct(String categoryname)</t>
+  </si>
+  <si>
+    <t>Product  UpdateProductName(String productname)</t>
+  </si>
+  <si>
+    <t>void deleteProductNameById(int id)</t>
+  </si>
+  <si>
+    <t>String displayResultsPerPageI(int pageindex)</t>
+  </si>
+  <si>
+    <t>List&lt;Customer&gt;  getAllIListOfCustomers()</t>
+  </si>
+  <si>
+    <t>Customer getSingleCustomerById(int id)</t>
+  </si>
+  <si>
+    <t>createCustomer(Customer customer)</t>
+  </si>
+  <si>
+    <t>Product createProductName(Product product)</t>
+  </si>
+  <si>
+    <t>Find Payment Details By Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Payment </t>
+  </si>
+  <si>
+    <t>Update Payment Details</t>
   </si>
 </sst>
 </file>
@@ -150,12 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -167,8 +311,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,18 +340,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9900FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -211,8 +350,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,49 +428,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,221 +778,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="4" width="70" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+      <c r="C29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+      <c r="B37" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="21"/>
+      <c r="B66" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
